--- a/banhang24/Template/ExportExcel/Report/BaoCaoChietKhau/Temp_BaoCaoHoaHongHoaDon.xlsx
+++ b/banhang24/Template/ExportExcel/Report/BaoCaoChietKhau/Temp_BaoCaoHoaHongHoaDon.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSOFT\banhang24_20180625\banhang24vn\banhang24\Template\ExportExcel\Report\BaoCaoChietKhau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSOFT\KangJinDemo\KangJinDemo\banhang24\Template\ExportExcel\Report\BaoCaoChietKhau\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,9 +25,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Tổng cộng:</t>
-  </si>
   <si>
     <t>BÁO CÁO TỔNG HỢP HOA HỒNG NHÂN VIÊN THEO HÓA ĐƠN</t>
   </si>
@@ -49,12 +46,15 @@
   <si>
     <t>Tổng</t>
   </si>
+  <si>
+    <t>Tổng cộng</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,13 +97,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="163"/>
     </font>
   </fonts>
@@ -126,7 +119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -141,19 +134,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -178,7 +158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -218,32 +198,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -529,7 +500,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,24 +514,24 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
@@ -570,32 +541,32 @@
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+    <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:7" s="14" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -791,10 +762,10 @@
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" s="12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="18"/>
+      <c r="A30" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="20"/>
       <c r="C30" s="11">
         <f>SUM(C$6:C29)</f>
         <v>0</v>
@@ -813,10 +784,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
+  <mergeCells count="2">
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A1:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/banhang24/Template/ExportExcel/Report/BaoCaoChietKhau/Temp_BaoCaoHoaHongHoaDon.xlsx
+++ b/banhang24/Template/ExportExcel/Report/BaoCaoChietKhau/Temp_BaoCaoHoaHongHoaDon.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSOFT\KangJinDemo\KangJinDemo\banhang24\Template\ExportExcel\Report\BaoCaoChietKhau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSOFT Source Code\KangJinDemo\banhang24\Template\ExportExcel\Report\BaoCaoChietKhau\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>BÁO CÁO TỔNG HỢP HOA HỒNG NHÂN VIÊN THEO HÓA ĐƠN</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Tổng</t>
-  </si>
-  <si>
-    <t>Tổng cộng</t>
   </si>
 </sst>
 </file>
@@ -100,7 +97,7 @@
       <charset val="163"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,14 +109,8 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -142,23 +133,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -188,10 +168,6 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -212,9 +188,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -497,15 +470,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" style="11" customWidth="1"/>
     <col min="2" max="2" width="34" style="3" customWidth="1"/>
     <col min="3" max="3" width="21" style="4" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" style="4" customWidth="1"/>
@@ -515,41 +488,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:7" s="14" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -761,31 +734,8 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" s="12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="11">
-        <f>SUM(C$6:C29)</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="11">
-        <f>SUM(D$6:D29)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="11">
-        <f>SUM(E$6:E29)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="11">
-        <f>SUM(F$6:F29)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A30:B30"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/banhang24/Template/ExportExcel/Report/BaoCaoChietKhau/Temp_BaoCaoHoaHongHoaDon.xlsx
+++ b/banhang24/Template/ExportExcel/Report/BaoCaoChietKhau/Temp_BaoCaoHoaHongHoaDon.xlsx
@@ -472,19 +472,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="11" customWidth="1"/>
     <col min="2" max="2" width="34" style="3" customWidth="1"/>
     <col min="3" max="3" width="21" style="4" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="26" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="20.6640625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -522,7 +522,7 @@
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
